--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2932566.131102885</v>
+        <v>2934326.661405669</v>
       </c>
     </row>
     <row r="7">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.11693918766136</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>150.1450882057763</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>152.4808586837663</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>111.0567566117639</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>52.21594625443454</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>217.604522411626</v>
+        <v>412.2518847340494</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760078</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425969</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372557</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149289</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>59.26877318520455</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -980,16 +980,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>22.84486023243687</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074776</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>162.0144646145762</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>34.69924876088776</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599129</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.2419391930403</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589133</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166223</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>106.1987279473118</v>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>268.4129712962002</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>200.4727983501226</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,25 +1214,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>40.70463877008024</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>20.27697994470863</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425542</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>163.0332593766356</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.86031280301169</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576166</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922651</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>40.62253010341743</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>193.3830930556899</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>5.421623586788822</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>28.75188085812055</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U34" t="n">
-        <v>191.2560787872429</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>15.51491006411167</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576182</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214437</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>61.66004604094996</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>55.52079624060465</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>233.1177194680685</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>414.0172523312948</v>
+        <v>482.822241409741</v>
       </c>
       <c r="C2" t="n">
-        <v>224.59746731481</v>
+        <v>482.822241409741</v>
       </c>
       <c r="D2" t="n">
-        <v>224.59746731481</v>
+        <v>482.822241409741</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832528</v>
+        <v>482.822241409741</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>293.4024563932561</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058979</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020265</v>
+        <v>734.4611726020271</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262254</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262254</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262254</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262254</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262254</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262254</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="X2" t="n">
-        <v>482.8222414097406</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="Y2" t="n">
-        <v>482.8222414097406</v>
+        <v>672.2420264262259</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>581.8870116452117</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="C3" t="n">
-        <v>427.86594226767</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="D3" t="n">
-        <v>278.9315326064187</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E3" t="n">
-        <v>278.9315326064187</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F3" t="n">
-        <v>132.3969746333037</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>132.3969746333037</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296054</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017063</v>
+        <v>739.5989987017068</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="X3" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.1023486652797</v>
+        <v>637.9238066331955</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>27.0396705623018</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396344</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>988.5343205036547</v>
+        <v>551.7154484413652</v>
       </c>
       <c r="C5" t="n">
-        <v>619.5718035632431</v>
+        <v>551.7154484413652</v>
       </c>
       <c r="D5" t="n">
-        <v>261.3061049564926</v>
+        <v>551.7154484413652</v>
       </c>
       <c r="E5" t="n">
-        <v>261.3061049564926</v>
+        <v>551.7154484413652</v>
       </c>
       <c r="F5" t="n">
-        <v>254.3606042072891</v>
+        <v>544.7699476921617</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675781</v>
+        <v>128.3539025062532</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675781</v>
+        <v>128.3539025062532</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675745</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017225</v>
+        <v>111.6705539017206</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746992</v>
+        <v>277.9807166746955</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030784</v>
+        <v>521.2049416030725</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709213</v>
+        <v>823.5081935709125</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582756</v>
+        <v>1135.316836582745</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079245</v>
+        <v>1416.413635079231</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332764</v>
+        <v>1621.822248332748</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837891</v>
+        <v>1727.902815837873</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837891</v>
+        <v>1703.71856654064</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.902815837891</v>
+        <v>1562.810726300988</v>
       </c>
       <c r="T5" t="n">
-        <v>1727.902815837891</v>
+        <v>1350.951391437424</v>
       </c>
       <c r="U5" t="n">
-        <v>1727.902815837891</v>
+        <v>1291.083943775601</v>
       </c>
       <c r="V5" t="n">
-        <v>1727.902815837891</v>
+        <v>1291.083943775601</v>
       </c>
       <c r="W5" t="n">
-        <v>1375.134160567776</v>
+        <v>938.3152885054869</v>
       </c>
       <c r="X5" t="n">
-        <v>1375.134160567776</v>
+        <v>938.3152885054869</v>
       </c>
       <c r="Y5" t="n">
-        <v>1375.134160567776</v>
+        <v>938.3152885054869</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>686.7931246341075</v>
+        <v>209.0110855978845</v>
       </c>
       <c r="C6" t="n">
-        <v>512.3400953529805</v>
+        <v>34.55805631675745</v>
       </c>
       <c r="D6" t="n">
-        <v>363.4056856917292</v>
+        <v>34.55805631675745</v>
       </c>
       <c r="E6" t="n">
-        <v>204.1682306862737</v>
+        <v>34.55805631675745</v>
       </c>
       <c r="F6" t="n">
-        <v>57.63367271315869</v>
+        <v>34.55805631675745</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675745</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675745</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675745</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787577</v>
+        <v>61.66788464787464</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806073</v>
+        <v>186.1577239806048</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189996</v>
+        <v>399.8722171189953</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223526</v>
+        <v>668.6238185223463</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352514</v>
+        <v>958.8971200352428</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228323</v>
+        <v>1202.220686228312</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639513</v>
+        <v>1378.176233639501</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906555</v>
+        <v>1445.878660906541</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703779</v>
+        <v>1445.878660906541</v>
       </c>
       <c r="S6" t="n">
-        <v>1258.309378699375</v>
+        <v>1445.878660906541</v>
       </c>
       <c r="T6" t="n">
-        <v>1062.768760419129</v>
+        <v>1445.878660906541</v>
       </c>
       <c r="U6" t="n">
-        <v>1062.768760419129</v>
+        <v>1282.227686548383</v>
       </c>
       <c r="V6" t="n">
-        <v>1062.768760419129</v>
+        <v>1047.075578316641</v>
       </c>
       <c r="W6" t="n">
-        <v>1062.768760419129</v>
+        <v>792.8382215884392</v>
       </c>
       <c r="X6" t="n">
-        <v>1062.768760419129</v>
+        <v>584.9867213829064</v>
       </c>
       <c r="Y6" t="n">
-        <v>855.0084616541756</v>
+        <v>377.2264226179525</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>215.6054393610416</v>
+        <v>34.55805631675745</v>
       </c>
       <c r="C7" t="n">
-        <v>215.6054393610416</v>
+        <v>34.55805631675745</v>
       </c>
       <c r="D7" t="n">
-        <v>215.6054393610416</v>
+        <v>34.55805631675745</v>
       </c>
       <c r="E7" t="n">
-        <v>215.6054393610416</v>
+        <v>34.55805631675745</v>
       </c>
       <c r="F7" t="n">
-        <v>215.6054393610416</v>
+        <v>34.55805631675745</v>
       </c>
       <c r="G7" t="n">
-        <v>215.6054393610416</v>
+        <v>34.55805631675745</v>
       </c>
       <c r="H7" t="n">
-        <v>180.5556931379226</v>
+        <v>34.55805631675745</v>
       </c>
       <c r="I7" t="n">
-        <v>65.10546964306114</v>
+        <v>34.55805631675745</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675781</v>
+        <v>34.55805631675745</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574734</v>
+        <v>64.24066662574619</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584124</v>
+        <v>132.1299861584102</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347985</v>
+        <v>206.9680378347952</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195383</v>
+        <v>287.884133819534</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934737</v>
+        <v>342.3101561934685</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858028</v>
+        <v>369.8190495857968</v>
       </c>
       <c r="Q7" t="n">
-        <v>332.5350520040944</v>
+        <v>369.8190495857968</v>
       </c>
       <c r="R7" t="n">
-        <v>215.6054393610416</v>
+        <v>369.8190495857968</v>
       </c>
       <c r="S7" t="n">
-        <v>215.6054393610416</v>
+        <v>369.8190495857968</v>
       </c>
       <c r="T7" t="n">
-        <v>215.6054393610416</v>
+        <v>369.8190495857968</v>
       </c>
       <c r="U7" t="n">
-        <v>215.6054393610416</v>
+        <v>369.8190495857968</v>
       </c>
       <c r="V7" t="n">
-        <v>215.6054393610416</v>
+        <v>369.8190495857968</v>
       </c>
       <c r="W7" t="n">
-        <v>215.6054393610416</v>
+        <v>369.8190495857968</v>
       </c>
       <c r="X7" t="n">
-        <v>215.6054393610416</v>
+        <v>141.8294986877794</v>
       </c>
       <c r="Y7" t="n">
-        <v>215.6054393610416</v>
+        <v>34.55805631675745</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1060.657767521153</v>
+        <v>1579.362210729296</v>
       </c>
       <c r="C8" t="n">
-        <v>691.695250580741</v>
+        <v>1210.399693788884</v>
       </c>
       <c r="D8" t="n">
-        <v>333.4295519739905</v>
+        <v>852.1339951821335</v>
       </c>
       <c r="E8" t="n">
-        <v>62.30533854348528</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="F8" t="n">
-        <v>55.3598377942818</v>
+        <v>55.35983779428171</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301905</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232726</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.587892771188</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561086</v>
+        <v>1965.962050793417</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.396939561086</v>
+        <v>1965.962050793417</v>
       </c>
       <c r="X8" t="n">
-        <v>1837.396939561086</v>
+        <v>1965.962050793417</v>
       </c>
       <c r="Y8" t="n">
-        <v>1447.257607585274</v>
+        <v>1965.962050793417</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>693.01044638299</v>
+        <v>353.4824828593249</v>
       </c>
       <c r="C9" t="n">
-        <v>518.5574171018631</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="D9" t="n">
-        <v>369.6230074406118</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="E9" t="n">
-        <v>210.3855524351563</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="F9" t="n">
-        <v>63.85099446204126</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="G9" t="n">
-        <v>63.85099446204126</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809314</v>
+        <v>80.03532540581917</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562342</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104403</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789501</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333489</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333489</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333489</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U9" t="n">
-        <v>1766.227047333489</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V9" t="n">
-        <v>1531.074939101746</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W9" t="n">
-        <v>1276.837582373545</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="X9" t="n">
-        <v>1068.986082168012</v>
+        <v>729.4581186443468</v>
       </c>
       <c r="Y9" t="n">
-        <v>861.2257834030581</v>
+        <v>521.6978198793929</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809314</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809314</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809314</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809314</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809314</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809314</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809314</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809314</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981547</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018946</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927338</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377469</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.309103603367</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514534</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R10" t="n">
-        <v>497.4664265514534</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="S10" t="n">
-        <v>497.4664265514534</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="T10" t="n">
-        <v>497.4664265514534</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="U10" t="n">
-        <v>497.4664265514534</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="V10" t="n">
-        <v>497.4664265514534</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="W10" t="n">
-        <v>208.0492565144928</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="X10" t="n">
-        <v>43.36919653809314</v>
+        <v>269.4768756534347</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.36919653809314</v>
+        <v>243.3553475695845</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5132,7 +5132,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1057.613315601761</v>
+        <v>788.0191461778138</v>
       </c>
       <c r="C13" t="n">
-        <v>888.6771326738537</v>
+        <v>788.0191461778138</v>
       </c>
       <c r="D13" t="n">
-        <v>738.560493261518</v>
+        <v>637.9025067654781</v>
       </c>
       <c r="E13" t="n">
-        <v>590.6473996791249</v>
+        <v>489.9894131830849</v>
       </c>
       <c r="F13" t="n">
-        <v>443.7574521812145</v>
+        <v>343.0994656851746</v>
       </c>
       <c r="G13" t="n">
-        <v>276.5613528960944</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>134.8495217382925</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2251.626625948251</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1962.551399292449</v>
       </c>
       <c r="V13" t="n">
-        <v>1977.461080510508</v>
+        <v>1707.866911086562</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.043910473548</v>
+        <v>1418.449741049601</v>
       </c>
       <c r="X13" t="n">
-        <v>1460.05435957553</v>
+        <v>1190.460190151584</v>
       </c>
       <c r="Y13" t="n">
-        <v>1239.261780432</v>
+        <v>969.6676110080535</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892237</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>414.4022433768879</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>266.4891497944948</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5509,31 +5509,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5603,10 +5603,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5652,34 +5652,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362677</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
@@ -5755,13 +5755,13 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5889,25 +5889,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6226,13 +6226,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6259,16 +6259,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6457,7 +6457,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6466,7 +6466,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6478,34 +6478,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6600,64 +6600,64 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
         <v>1202.091371290588</v>
@@ -6694,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1851.318825887154</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1851.318825887154</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1561.901655850193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1333.912104952176</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6931,37 +6931,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6973,7 +6973,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7028,10 +7028,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>945.4026036630049</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,52 +7156,52 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474785</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7341,7 +7341,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7350,13 +7350,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487568</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111727</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>297.8113689946122</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7596,25 +7596,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="44">
@@ -7636,43 +7636,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803938</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
         <v>402.7245934908938</v>
@@ -7800,10 +7800,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1198.22892174168</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1198.22892174168</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>40.64330621514811</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>24.02235727159837</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>139.9994244361424</v>
+        <v>37.1260136526046</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>116.6691671648112</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405072</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>119.8635921600918</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U34" t="n">
-        <v>94.92839560200127</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>151.7319110345162</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>6.257951202384277</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>103.8640922513189</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25836,7 +25836,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610399</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>53.40527886852252</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>740460.6509162887</v>
+        <v>740460.6509162888</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>740460.6509162887</v>
+        <v>740460.6509162888</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>740460.6509162887</v>
+        <v>740460.6509162888</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846413</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365055</v>
@@ -26334,28 +26334,28 @@
         <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
+        <v>686074.6097365052</v>
+      </c>
+      <c r="N2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="O2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365054</v>
       </c>
     </row>
     <row r="3">
@@ -26365,43 +26365,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208455</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253142</v>
+        <v>270592.3620253091</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231922</v>
+        <v>115410.0540231958</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742641</v>
+        <v>601443.2075742654</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854456</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765882017</v>
+        <v>62913.63765881894</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197474</v>
+        <v>27875.25362197559</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515977</v>
+        <v>157146.3805515981</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.139184627798386e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263457</v>
+        <v>206604.4229263471</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888974</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186746</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186726</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936831</v>
+        <v>76435.73471936796</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26505,7 +26505,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-228993.763381948</v>
       </c>
       <c r="C6" t="n">
-        <v>144252.9847136126</v>
+        <v>144252.9847136169</v>
       </c>
       <c r="D6" t="n">
-        <v>323073.3784166795</v>
+        <v>323073.3784166751</v>
       </c>
       <c r="E6" t="n">
-        <v>-31665.20295788977</v>
+        <v>-31352.56162897023</v>
       </c>
       <c r="F6" t="n">
-        <v>569778.0046163738</v>
+        <v>570090.645945296</v>
       </c>
       <c r="G6" t="n">
-        <v>569778.0046163744</v>
+        <v>570090.6459452955</v>
       </c>
       <c r="H6" t="n">
-        <v>569778.0046163741</v>
+        <v>570090.6459452953</v>
       </c>
       <c r="I6" t="n">
-        <v>569778.004616374</v>
+        <v>570090.6459452956</v>
       </c>
       <c r="J6" t="n">
-        <v>520713.0598878295</v>
+        <v>521025.7012167507</v>
       </c>
       <c r="K6" t="n">
-        <v>506864.3669575542</v>
+        <v>507177.0082864764</v>
       </c>
       <c r="L6" t="n">
-        <v>541902.7509943994</v>
+        <v>542215.39232332</v>
       </c>
       <c r="M6" t="n">
-        <v>412631.6240647765</v>
+        <v>412944.265393697</v>
       </c>
       <c r="N6" t="n">
-        <v>569778.0046163741</v>
+        <v>570090.645945295</v>
       </c>
       <c r="O6" t="n">
-        <v>569778.0046163743</v>
+        <v>570090.6459452957</v>
       </c>
       <c r="P6" t="n">
-        <v>569778.0046163739</v>
+        <v>570090.6459452956</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950631</v>
+        <v>758.8996292950592</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376849</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594726</v>
+        <v>431.9757039594681</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261642</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26816,22 +26816,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="P4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821585</v>
+        <v>210.4296883821545</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262187</v>
+        <v>94.81103524262494</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039888</v>
+        <v>514.2648358039899</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931527</v>
+        <v>244.4501167931481</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666916</v>
+        <v>110.1392527666949</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734841</v>
+        <v>630.5933313734855</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931529</v>
+        <v>244.4501167931481</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666916</v>
+        <v>110.1392527666949</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734841</v>
+        <v>630.5933313734855</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931527</v>
+        <v>244.4501167931481</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666916</v>
+        <v>110.1392527666949</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734841</v>
+        <v>630.5933313734855</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>314.6169024758192</v>
+        <v>195.2082544971605</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046876</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>262.9527450242817</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27460,13 +27460,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>20.22764030454945</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27475,13 +27475,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>94.62593916554042</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>115.0308748441933</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>173.4937091346027</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>194.6473623224234</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714734</v>
+        <v>308.2302560714736</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760019</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425872</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372554</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>191.8328115001451</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27700,22 +27700,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>112.8663067847429</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246128</v>
+        <v>96.47037835246137</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937503</v>
+        <v>43.32085084937533</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074827</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843607</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>63.81952600942293</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>115.360647722772</v>
+        <v>150.0598964836598</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.2957212599131</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.24193919304079</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589192</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>115.7603165166226</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130602</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913143</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>112.385925404783</v>
       </c>
     </row>
     <row r="8">
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>113.5173987760616</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708287</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>127.2794601200123</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27934,25 +27934,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>132.0038602182355</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>74.22383331714649</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904879</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,22 +27979,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721421</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923915</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>62.67639601240151</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>192.7243405490831</v>
       </c>
     </row>
     <row r="11">
@@ -28262,7 +28262,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-9.28537247091299e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-2.160049916710705e-12</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -31044,13 +31044,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31062,25 +31062,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31126,7 +31126,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,16 +31135,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31153,16 +31153,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31229,19 +31229,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085678</v>
+        <v>3.050852781085663</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429371</v>
+        <v>31.24454604429355</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428057</v>
+        <v>117.6180018428051</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286709</v>
+        <v>258.9373162286695</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520277</v>
+        <v>388.0799144520257</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511786</v>
+        <v>481.4474502511761</v>
       </c>
       <c r="M5" t="n">
-        <v>535.703053396811</v>
+        <v>535.7030533968083</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610708</v>
+        <v>544.3712888610679</v>
       </c>
       <c r="O5" t="n">
-        <v>514.03437151915</v>
+        <v>514.0343715191474</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860972</v>
+        <v>438.716443486095</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634663</v>
+        <v>329.4577782634646</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098734</v>
+        <v>191.6431310098724</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898997</v>
+        <v>69.52130774898961</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920256</v>
+        <v>13.3551080492025</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868542</v>
+        <v>0.244068222486853</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.63235014603089</v>
+        <v>1.632350146030882</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403518</v>
+        <v>15.7650658840351</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062496</v>
+        <v>56.20152915062467</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475939</v>
+        <v>154.2212916475931</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316636</v>
+        <v>263.5887514316622</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721896</v>
+        <v>354.4276051721878</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658093</v>
+        <v>413.6002979658072</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468674</v>
+        <v>424.5470671468652</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374461</v>
+        <v>388.3776244374441</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872496</v>
+        <v>311.707283587248</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547502</v>
+        <v>208.3680642547491</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632162</v>
+        <v>101.3488976632157</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947726</v>
+        <v>30.32018801947711</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378894</v>
+        <v>6.57951659737886</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757165</v>
+        <v>0.107391456975716</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236999</v>
+        <v>1.368507528236992</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377987</v>
+        <v>12.16727602377981</v>
       </c>
       <c r="I7" t="n">
-        <v>41.1547536673454</v>
+        <v>41.15475366734518</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635582</v>
+        <v>96.75348224635532</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260804</v>
+        <v>158.9956928260796</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162535</v>
+        <v>203.4597465162524</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399142</v>
+        <v>214.5197755399132</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528492</v>
+        <v>209.4189747528482</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275351</v>
+        <v>193.4323186275342</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515002</v>
+        <v>165.5147650514994</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235545</v>
+        <v>114.5938440235539</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054722</v>
+        <v>61.53307486054691</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391205</v>
+        <v>23.84935392391193</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830812</v>
+        <v>5.847259438830782</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656366</v>
+        <v>0.07464586517656328</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934784</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190909</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928398</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699498</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.519486191358</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730382</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884509</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475635</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017479</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420141</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153095</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978882</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419861</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>375.1407109807906</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33927,7 +33927,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,7 +34000,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34067,7 +34067,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198457</v>
+        <v>77.8914117019832</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070471</v>
+        <v>167.9900634070451</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811913</v>
+        <v>245.6810352811889</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695383</v>
+        <v>305.3568201695356</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644798</v>
+        <v>314.958225264477</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974632</v>
+        <v>283.9361600974606</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308277</v>
+        <v>207.4834477308254</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890168</v>
+        <v>107.1520883890151</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092722</v>
+        <v>27.38366498092645</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573046</v>
+        <v>125.7473124573032</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923154</v>
+        <v>215.8732253923137</v>
       </c>
       <c r="M6" t="n">
-        <v>271.466264043791</v>
+        <v>271.4662640437889</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635341</v>
+        <v>293.2053550635319</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930016</v>
+        <v>245.7813799929997</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729194</v>
+        <v>177.7328761729178</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872864</v>
+        <v>68.38629016872758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554498</v>
+        <v>29.98243465554418</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501518</v>
+        <v>68.57507023501415</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230918</v>
+        <v>75.5939915923081</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761605</v>
+        <v>81.73343028761499</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569234</v>
+        <v>54.97578017569137</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235262</v>
+        <v>27.78676100235177</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.473758780891</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662057</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974042</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109607</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183904</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093967</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.678047216999</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.152662181806</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510199</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440065</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332333</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892929</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850741</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563548</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767809</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769702</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084182</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>243.7989988974573</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37712,7 +37712,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
